--- a/public/import/daily_template (5).xlsx
+++ b/public/import/daily_template (5).xlsx
@@ -1,25 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayu-pajak\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBEFEAB-156E-49C1-B70E-70B1FC8CA569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6435"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" forceFullCalc="1"/>
+  <calcPr calcId="181029" forceFullCalc="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="34">
   <si>
     <t>date</t>
   </si>
@@ -54,74 +65,80 @@
     <t>12:30</t>
   </si>
   <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>istirahat</t>
+  </si>
+  <si>
     <t>15:00</t>
   </si>
   <si>
-    <t>16:00</t>
-  </si>
-  <si>
-    <t>17:00</t>
-  </si>
-  <si>
-    <t>2022-06-13</t>
-  </si>
-  <si>
-    <t>2022-06-14</t>
-  </si>
-  <si>
-    <t>2022-06-15</t>
-  </si>
-  <si>
-    <t>2022-06-16</t>
-  </si>
-  <si>
-    <t>2022-06-17</t>
-  </si>
-  <si>
-    <t>2022-06-18</t>
-  </si>
-  <si>
-    <t>Tarik data Propuleted terupadte masa mei 2022 cv top selular di e faktur</t>
-  </si>
-  <si>
-    <t>Kirim Faktur pajak ke customer PKP masa mei 2022</t>
-  </si>
-  <si>
-    <t>Tarik buku penjualan terupadte masa mei 2022</t>
-  </si>
-  <si>
-    <t>Aplod faktur pajak masa mei 2022 di Efaktur pajak pkp</t>
-  </si>
-  <si>
-    <t>Submit data Propuleted dan Faktur Masukan ke Elita masa mei 2022 cv top selular</t>
-  </si>
-  <si>
-    <t>Minta PNL sementara cv top selular masa mei 2022 ke akunting</t>
-  </si>
-  <si>
-    <t>Aplod faktur pajak masa mei 2022 di Efaktur pajak tidak pkp</t>
-  </si>
-  <si>
-    <t>Koordinasi sama teh elita mengenai pph 21 bukan karyawan csv cv top selular</t>
-  </si>
-  <si>
-    <t>Bikin Surat Pemusatan Cv top selular</t>
-  </si>
-  <si>
-    <t>Minta nomor seri faktur pajak di e nopa cv top selular</t>
-  </si>
-  <si>
-    <t>Import CSV pph 21 yang buka karyawan cv top selular</t>
-  </si>
-  <si>
-    <t>Filling dokumen cv top selular</t>
+    <t>Tarik Propuled masa juli di e faktur cv top selular terupadte</t>
+  </si>
+  <si>
+    <t>Follow up ke customer atas retur masa juli 2022</t>
+  </si>
+  <si>
+    <t>2022-08-22</t>
+  </si>
+  <si>
+    <t>2022-08-23</t>
+  </si>
+  <si>
+    <t>2022-08-24</t>
+  </si>
+  <si>
+    <t>2022-08-25</t>
+  </si>
+  <si>
+    <t>2022-08-26</t>
+  </si>
+  <si>
+    <t>2022-08-27</t>
+  </si>
+  <si>
+    <t>Aplod faktur masukan masa juli 2022 cv top selular di efaktur</t>
+  </si>
+  <si>
+    <t>Koordinasi sm akuntig mengenai ppn masa juli 2022 penjualan</t>
+  </si>
+  <si>
+    <t>Koordinasi sm akuntig mengenai ppn masa juli 2022 pembelian</t>
+  </si>
+  <si>
+    <t>CUTI TAHUNAN</t>
+  </si>
+  <si>
+    <t>rekap ppn keluaran dan masukan masa juli 2022 sementara</t>
+  </si>
+  <si>
+    <t>aplod retur keluaran masa juli 2022 cv top selular</t>
+  </si>
+  <si>
+    <t>Kirim bukti potong ke vendor pph 23 masa juli 2022</t>
+  </si>
+  <si>
+    <t>Submit ke pak ahmad ppn masa juli 2022 cv top selular</t>
+  </si>
+  <si>
+    <t>Posting ppn masa juli 2022 cv top selular di e faktur</t>
+  </si>
+  <si>
+    <t>Posting ppn masa juli 2022 cv top selulardi web e faktur</t>
+  </si>
+  <si>
+    <t>Rekap bukti potong cv top selular terupadte</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -133,13 +150,31 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -154,12 +189,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -253,6 +289,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -288,6 +341,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -463,17 +533,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -488,8 +558,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>14</v>
+      <c r="A2" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -499,425 +569,350 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>22</v>
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>14</v>
+      <c r="A8" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>14</v>
+      <c r="A9" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>21</v>
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>24</v>
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="C33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>